--- a/config_multi.xls/bj_max_bet.xlsx
+++ b/config_multi.xls/bj_max_bet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\work\gamedata\config_multi.xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E584D8DC-4D2B-46A4-B47D-B8D206D4A4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="370"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bj_max_bet" sheetId="2" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>微软用户</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>type</t>
   </si>
@@ -54,26 +55,30 @@
     <t>maxbet:list</t>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>000;2000</t>
-    </r>
+    <t>1000;3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000;30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000;300000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000;3000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000;30000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -476,7 +481,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -484,7 +489,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -492,40 +497,25 @@
         <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>202</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>203</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>204</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
